--- a/Gant v4.xlsx
+++ b/Gant v4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unice-my.sharepoint.com/personal/jean-baptiste_bruneau_etu_unice_fr/Documents/SAE15/Fichiers template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="8_{11566052-C411-4CAE-AE37-229D10CBADC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E5DE632-0BF3-4FBC-9845-BABBD3F9AC6E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF6E1EF0-4562-4237-8E45-83A4378F471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Week" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Week!$C$1:$X$24</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Week!$5:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2014-2019 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"project-schedule.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Project Schedule Template"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Week!$C$1:$X$24</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -63,94 +63,94 @@
     <t>Etat d'avancement</t>
   </si>
   <si>
+    <t>Jean-Batptiste</t>
+  </si>
+  <si>
+    <t>Algo JSON</t>
+  </si>
+  <si>
+    <t>Algo bridge vers la BDD</t>
+  </si>
+  <si>
+    <t>En cours</t>
+  </si>
+  <si>
+    <t>Algo prise de photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Jean-Baptiste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algo Boot </t>
+  </si>
+  <si>
+    <t>Algo logs handlers</t>
+  </si>
+  <si>
+    <t>Mael, Selyan</t>
+  </si>
+  <si>
+    <t>Page d'accueil site web</t>
+  </si>
+  <si>
+    <t>Page de connexion du site web</t>
+  </si>
+  <si>
+    <t>Page de paramètres du site web</t>
+  </si>
+  <si>
+    <t>Page de la galerie</t>
+  </si>
+  <si>
+    <t>Page php bridge bdd</t>
+  </si>
+  <si>
+    <t>Nicolas,Mael</t>
+  </si>
+  <si>
+    <t>Création de la Base de Donnée</t>
+  </si>
+  <si>
+    <t>Mael,Nicolas</t>
+  </si>
+  <si>
+    <t>Sécurisation du site</t>
+  </si>
+  <si>
+    <t>Nicolas, Mael</t>
+  </si>
+  <si>
+    <t>Sécurisation base de donnée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selyan, Mael </t>
+  </si>
+  <si>
+    <t>Test site web</t>
+  </si>
+  <si>
+    <t>Test Photo</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Test base de donnée</t>
+  </si>
+  <si>
+    <t>Jean-Baptiste, Nicolas</t>
+  </si>
+  <si>
+    <t>Test général</t>
+  </si>
+  <si>
     <t>au 07/06/2022</t>
   </si>
   <si>
-    <t>Jean-Batptiste</t>
-  </si>
-  <si>
-    <t>Algo JSON</t>
-  </si>
-  <si>
     <t>Terminé</t>
-  </si>
-  <si>
-    <t>Algo bridge vers la BDD</t>
-  </si>
-  <si>
-    <t>Jean-Batptiste, Nicolas</t>
-  </si>
-  <si>
-    <t>Algo prise de photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Jean-Baptiste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algo Boot </t>
-  </si>
-  <si>
-    <t>Algo logs handlers</t>
-  </si>
-  <si>
-    <t>Mael,(Selyan)</t>
-  </si>
-  <si>
-    <t>Page d'accueil site web</t>
-  </si>
-  <si>
-    <t>Page de connexion du site web</t>
-  </si>
-  <si>
-    <t>Page de paramètres du site web</t>
-  </si>
-  <si>
-    <t>Page de la galerie</t>
-  </si>
-  <si>
-    <t>Page php bridge bdd</t>
-  </si>
-  <si>
-    <t>Nicolas,Mael</t>
-  </si>
-  <si>
-    <t>Création de la Base de Donnée</t>
-  </si>
-  <si>
-    <t>Mael,Nicolas</t>
-  </si>
-  <si>
-    <t>Sécurisation du site</t>
-  </si>
-  <si>
-    <t>En cours</t>
-  </si>
-  <si>
-    <t>Sécurisation base de donnée</t>
-  </si>
-  <si>
-    <t>Test site web</t>
-  </si>
-  <si>
-    <t>Jean-Baptiste,Nicolas</t>
-  </si>
-  <si>
-    <t>Test Photo</t>
-  </si>
-  <si>
-    <t>Nicolas</t>
-  </si>
-  <si>
-    <t>Test base de donnée</t>
-  </si>
-  <si>
-    <t>Jean-Baptiste, Nicolas</t>
-  </si>
-  <si>
-    <t>Test général</t>
   </si>
 </sst>
 </file>
@@ -162,7 +162,7 @@
     <numFmt numFmtId="165" formatCode="d"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -949,10 +949,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20 % - Accent1" xfId="5" builtinId="30"/>
-    <cellStyle name="60 % - Accent1" xfId="4" builtinId="32"/>
-    <cellStyle name="Insatisfaisant" xfId="3" builtinId="27"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
+    <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{139ECF8A-C02D-4A68-AFC6-267F71378C71}"/>
   </cellStyles>
@@ -1370,10 +1370,10 @@
   <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1"/>
     <col min="2" max="2" width="42.42578125" style="1" customWidth="1"/>
@@ -1385,7 +1385,7 @@
     <col min="27" max="16384" width="3.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="33.75" customHeight="1">
+    <row r="1" spans="1:37" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="32"/>
     </row>
-    <row r="2" spans="1:37" ht="13.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:37" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="14"/>
       <c r="Z2" s="33"/>
       <c r="AA2" s="29"/>
@@ -1404,7 +1404,7 @@
       <c r="AC2" s="29"/>
       <c r="AD2" s="29"/>
     </row>
-    <row r="3" spans="1:37" ht="21" customHeight="1" thickBot="1">
+    <row r="3" spans="1:37" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="15" t="s">
@@ -1418,7 +1418,7 @@
       <c r="I3" s="63"/>
       <c r="Z3" s="39"/>
     </row>
-    <row r="4" spans="1:37" ht="15" thickBot="1">
+    <row r="4" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="X4" s="4"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="31"/>
@@ -1427,7 +1427,7 @@
       <c r="AC4" s="13"/>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:37" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:37" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
       <c r="C5" s="20" t="s">
         <v>3</v>
@@ -1499,7 +1499,7 @@
       <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
     </row>
-    <row r="6" spans="1:37" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:37" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="64" t="s">
         <v>4</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="AC6" s="13"/>
       <c r="AD6" s="13"/>
     </row>
-    <row r="7" spans="1:37" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="7" spans="1:37" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="65"/>
       <c r="C7" s="60"/>
       <c r="D7" s="24">
@@ -1678,7 +1678,7 @@
         <v>44737</v>
       </c>
       <c r="X7" s="58" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Z7" s="35"/>
       <c r="AA7" s="17"/>
@@ -1686,13 +1686,13 @@
       <c r="AC7" s="13"/>
       <c r="AD7" s="13"/>
     </row>
-    <row r="8" spans="1:37" ht="21" customHeight="1">
+    <row r="8" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>8</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>9</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -1715,17 +1715,17 @@
       <c r="V8" s="5"/>
       <c r="W8" s="6"/>
       <c r="X8" s="42" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Z8" s="37"/>
       <c r="AA8" s="17"/>
     </row>
-    <row r="9" spans="1:37" ht="21" customHeight="1">
+    <row r="9" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
@@ -1748,17 +1748,17 @@
       <c r="V9" s="5"/>
       <c r="W9" s="6"/>
       <c r="X9" s="42" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Z9" s="38"/>
       <c r="AA9" s="18"/>
     </row>
-    <row r="10" spans="1:37" ht="21" customHeight="1">
+    <row r="10" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="46" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
@@ -1781,20 +1781,20 @@
       <c r="V10" s="5"/>
       <c r="W10" s="6"/>
       <c r="X10" s="42" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Z10" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA10" s="18"/>
     </row>
-    <row r="11" spans="1:37" ht="21" customHeight="1">
+    <row r="11" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -1817,18 +1817,18 @@
       <c r="V11" s="5"/>
       <c r="W11" s="6"/>
       <c r="X11" s="42" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Z11" s="36"/>
       <c r="AA11" s="17"/>
     </row>
-    <row r="12" spans="1:37" ht="21" customHeight="1">
+    <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>15</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>17</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -1851,7 +1851,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="6"/>
       <c r="X12" s="42" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Z12" s="36"/>
       <c r="AA12" s="17"/>
@@ -1860,12 +1860,12 @@
       <c r="AJ12" s="28"/>
       <c r="AK12" s="28"/>
     </row>
-    <row r="13" spans="1:37" ht="21" customHeight="1">
+    <row r="13" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="51"/>
       <c r="E13" s="51"/>
@@ -1888,7 +1888,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="6"/>
       <c r="X13" s="42" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Z13" s="36"/>
       <c r="AA13" s="17"/>
@@ -1897,12 +1897,12 @@
       <c r="AJ13" s="28"/>
       <c r="AK13" s="28"/>
     </row>
-    <row r="14" spans="1:37" ht="21" customHeight="1">
-      <c r="B14" s="46" t="s">
+    <row r="14" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>20</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
@@ -1925,7 +1925,7 @@
       <c r="V14" s="5"/>
       <c r="W14" s="6"/>
       <c r="X14" s="42" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Z14" s="36"/>
       <c r="AA14" s="17"/>
@@ -1934,13 +1934,13 @@
       <c r="AJ14" s="28"/>
       <c r="AK14" s="28"/>
     </row>
-    <row r="15" spans="1:37" ht="21" customHeight="1">
+    <row r="15" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
-      <c r="B15" s="46" t="s">
-        <v>18</v>
+      <c r="B15" s="47" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
@@ -1963,7 +1963,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="6"/>
       <c r="X15" s="42" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Z15" s="36"/>
       <c r="AA15" s="17"/>
@@ -1972,12 +1972,12 @@
       <c r="AJ15" s="28"/>
       <c r="AK15" s="28"/>
     </row>
-    <row r="16" spans="1:37" ht="21" customHeight="1">
-      <c r="B16" s="46" t="s">
-        <v>18</v>
+    <row r="16" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="47" t="s">
+        <v>16</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
@@ -2000,17 +2000,17 @@
       <c r="V16" s="5"/>
       <c r="W16" s="6"/>
       <c r="X16" s="42" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Z16" s="36"/>
       <c r="AA16" s="17"/>
     </row>
-    <row r="17" spans="1:27" ht="21" customHeight="1">
-      <c r="B17" s="46" t="s">
-        <v>18</v>
+    <row r="17" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="47" t="s">
+        <v>16</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
@@ -2033,17 +2033,17 @@
       <c r="V17" s="5"/>
       <c r="W17" s="6"/>
       <c r="X17" s="42" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Z17" s="36"/>
       <c r="AA17" s="17"/>
     </row>
-    <row r="18" spans="1:27" ht="21" customHeight="1">
+    <row r="18" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="51"/>
@@ -2066,17 +2066,17 @@
       <c r="V18" s="5"/>
       <c r="W18" s="6"/>
       <c r="X18" s="42" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Y18" s="36"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:27" ht="21" customHeight="1">
+    <row r="19" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -2099,17 +2099,17 @@
       <c r="V19" s="5"/>
       <c r="W19" s="6"/>
       <c r="X19" s="42" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="Y19" s="32"/>
       <c r="Z19" s="17"/>
     </row>
-    <row r="20" spans="1:27" ht="21" customHeight="1">
+    <row r="20" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
@@ -2132,16 +2132,16 @@
       <c r="V20" s="5"/>
       <c r="W20" s="6"/>
       <c r="X20" s="42" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Y20" s="32"/>
     </row>
-    <row r="21" spans="1:27" ht="21" customHeight="1">
+    <row r="21" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
@@ -2164,17 +2164,17 @@
       <c r="V21" s="5"/>
       <c r="W21" s="6"/>
       <c r="X21" s="43" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="Y21" s="32"/>
     </row>
-    <row r="22" spans="1:27" ht="21" customHeight="1">
+    <row r="22" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="48" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
@@ -2197,16 +2197,16 @@
       <c r="V22" s="5"/>
       <c r="W22" s="6"/>
       <c r="X22" s="43" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="Y22" s="32"/>
     </row>
-    <row r="23" spans="1:27" ht="21" customHeight="1">
+    <row r="23" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
@@ -2229,17 +2229,17 @@
       <c r="V23" s="5"/>
       <c r="W23" s="6"/>
       <c r="X23" s="42" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Y23" s="32"/>
     </row>
-    <row r="24" spans="1:27" ht="21" customHeight="1" thickBot="1">
+    <row r="24" spans="1:27" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
@@ -2262,16 +2262,16 @@
       <c r="V24" s="5"/>
       <c r="W24" s="6"/>
       <c r="X24" s="43" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="21" customHeight="1"/>
-    <row r="26" spans="1:27" ht="21" customHeight="1"/>
-    <row r="27" spans="1:27" ht="21" customHeight="1"/>
-    <row r="28" spans="1:27" ht="21" customHeight="1"/>
-    <row r="29" spans="1:27" ht="21" customHeight="1"/>
-    <row r="30" spans="1:27" ht="21" customHeight="1"/>
-    <row r="31" spans="1:27" ht="21" customHeight="1"/>
+    <row r="25" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C6:C7"/>
@@ -2360,6 +2360,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C7198730F17BB468E77DDE314ECFE80" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="851db880da99d6a212862657460a2fb6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b6932c1e-8581-41ae-8fa1-5d023462c8df" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f74124d09e968b5df1aaa9452553fa2a" ns3:_="">
     <xsd:import namespace="b6932c1e-8581-41ae-8fa1-5d023462c8df"/>
@@ -2517,23 +2526,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD4FB297-7407-4D0A-A5A2-42DF0DAB86E3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD4FB297-7407-4D0A-A5A2-42DF0DAB86E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b6932c1e-8581-41ae-8fa1-5d023462c8df"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66C3C10A-B3A0-4AEF-9396-D78341B8E00F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6EC6AD3-BFD0-46D5-9A24-99EAF00502C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6EC6AD3-BFD0-46D5-9A24-99EAF00502C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66C3C10A-B3A0-4AEF-9396-D78341B8E00F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b6932c1e-8581-41ae-8fa1-5d023462c8df"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>